--- a/biology/Botanique/Verveine_de_Buenos_Aires/Verveine_de_Buenos_Aires.xlsx
+++ b/biology/Botanique/Verveine_de_Buenos_Aires/Verveine_de_Buenos_Aires.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbena bonariensis
 Verbena bonariensis, la verveine de Buenos-Aires, est une espèce de plantes dicotylédones de la famille des Verbenaceae, originaire des régions tropicales d'Amérique du Sud.
@@ -514,16 +526,18 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Verbena bonariensis est une plante herbacée vivace, à port dressé,  pouvant atteindre 1,2 de haut, mais formant souvent une touffe plus basse. Le système racinaire est constitué d'une racine pivotante.
 Les tiges, à section quadrangulaire, sont grossièrement poilue (scabreuse) et parfois légèrement lignifiées à la base.
-Les feuilles, entières, sessiles, opposées décussées (chaque paire de feuilles faisant un angle de 90° avec la suivante), enserrant légèrement les tiges à la base du limbe, sont lancéolées, étroitement ovales ou oblongues, à l'apex acuminé, mesurant de 4 à 22 cm de long sur 6 à 70 mm de large. Elles sont irrégulièrement dentées sur les bords, en particulier vers l'extrémité du limbe foliaire. La face supérieure des feuilles, comme les tiges, est grossièrement poilue et rugueuse au toucher (scabreuse), tandis que la face inférieure est tomenteuse, cotonneuse[1],[2].
+Les feuilles, entières, sessiles, opposées décussées (chaque paire de feuilles faisant un angle de 90° avec la suivante), enserrant légèrement les tiges à la base du limbe, sont lancéolées, étroitement ovales ou oblongues, à l'apex acuminé, mesurant de 4 à 22 cm de long sur 6 à 70 mm de large. Elles sont irrégulièrement dentées sur les bords, en particulier vers l'extrémité du limbe foliaire. La face supérieure des feuilles, comme les tiges, est grossièrement poilue et rugueuse au toucher (scabreuse), tandis que la face inférieure est tomenteuse, cotonneuse,.
 Les inflorescences sont des corymbes, situés à l'extrémité des tiges, formés de 4 à 10 épis denses de 1 à 4 cm de long. Elles regroupent de nombreuses fleurs, petites, tubulaires.
 Les tiges (pédoncules) de ces grappes et les petites bractées situées au-dessous de chaque fleur sont couvertes de poils glandulaires, courts, collants.
 Chaque fleur compte cinq sépales (de 2,5 à 3,5 mm de long), soudés à la base en un tube, et cinq pétales bleuâtre, violets ou rose lavande, également soudés en tube à la base, et environ deux fois plus longs que les sépales (6 à 7 mm de long), mais ils forment à leur extrémité cinq lobes arrondis étalés, d'environ 2 mm de long.
 La floraison a lieu principalement pendant la saison des pluies.
-Les fruits, petits, sont des capules, divisées en quatre « graines » (nucules), oblongues à linéaires, trigones, luisantes, rugueuses, brunes à maturité, de 1,5 à 1,8 mm de long[1],[2].
+Les fruits, petits, sont des capules, divisées en quatre « graines » (nucules), oblongues à linéaires, trigones, luisantes, rugueuses, brunes à maturité, de 1,5 à 1,8 mm de long,.
 </t>
         </is>
       </c>
@@ -554,8 +568,13 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Synonymes
-Selon Catalogue of Life                                   (20 août 2016)[3] :
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Catalogue of Life                                   (20 août 2016) :
 Verbena bonariensis f. albiflora Moldenke,
 Verbena bonariensis var. conglomerata Briq.,
 Verbena bonariensis var. hispida Moldenke, nom. illeg.,
@@ -566,8 +585,43 @@
 Verbena inamoena Briq.,
 Verbena intercedens Briq.,
 Verbena trichotoma Moench, nom. illeg.
-Liste des variétés
-Selon Tropicos                                           (20 août 2016)[4] (Attention liste brute contenant possiblement des synonymes) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Verveine_de_Buenos_Aires</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Verveine_de_Buenos_Aires</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Taxinomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon Tropicos                                           (20 août 2016) (Attention liste brute contenant possiblement des synonymes) :
 Verbena bonariensis var. bonariensis
 Verbena bonariensis var. brevibracteata Kuntze
 Verbena bonariensis var. conglomerata Briq.
